--- a/plots/loss_multipath_var.xlsx
+++ b/plots/loss_multipath_var.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7CF3C-CB66-A540-A502-E88E51BF7C92}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF59D31-40A3-E44F-9AAF-7D473322A741}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F2372139-2DEC-2746-94C8-0716D5BDFD0C}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{F2372139-2DEC-2746-94C8-0716D5BDFD0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$121</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$121</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$121</definedName>
     <definedName name="loss_multipath_var_out" localSheetId="0">Sheet1!$A$2:$C$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,8 +34,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{133E8994-E92A-B142-BD40-14CC41A92CA5}" name="loss_multipath_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out/loss_multipath_var_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="loss_multipath_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out/loss_multipath_var_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -120,6 +125,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> 3-hop-path</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -133,7 +168,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1975,7 +2010,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2007,12 +2042,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2595,14 +2625,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2633,7 +2663,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="loss_multipath_var_out" connectionId="1" xr16:uid="{ACD59D33-9697-784E-9034-34BF728509CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="loss_multipath_var_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2936,7 +2966,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/loss_multipath_var.xlsx
+++ b/plots/loss_multipath_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF59D31-40A3-E44F-9AAF-7D473322A741}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB130AA9-BAE0-E243-B332-3FDA0B62F557}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{F2372139-2DEC-2746-94C8-0716D5BDFD0C}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$121</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$121</definedName>
     <definedName name="loss_multipath_var_out" localSheetId="0">Sheet1!$A$2:$C$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -55,7 +50,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -980,7 +975,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1780,7 +1775,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1793,7 +1788,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -1812,7 +1807,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1898,7 +1893,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1911,7 +1906,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>%</a:t>
                 </a:r>
               </a:p>
@@ -1930,7 +1925,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2966,7 +2961,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
